--- a/Metiers/Scripts/Manual/InputDataTable.xlsx
+++ b/Metiers/Scripts/Manual/InputDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molla004\OneDrive - Wageningen University &amp; Research\Git\hub\RCGs\Metiers\Scripts\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{DAFA5E2C-34C1-4C17-BD01-05C2A1650EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA3175FC-5571-48EC-BF85-8BF11D144A55}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{DAFA5E2C-34C1-4C17-BD01-05C2A1650EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79C27D95-42E9-4FC9-8B5D-BB8D5BDDCC1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE080D64-DCD8-4AFB-AA14-CF7186C7FE0D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -59,9 +59,6 @@
     <t>POLAAA1201806100325</t>
   </si>
   <si>
-    <t>Haul identifier.</t>
-  </si>
-  <si>
     <t>POLAAA1201806100325_1</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>1_120</t>
   </si>
   <si>
-    <t xml:space="preserve">If the target assemblage of species code is registered in the logbooks it can be entered here and the metier level6 will be calculated taking it into account. </t>
-  </si>
-  <si>
     <t>DEF</t>
   </si>
   <si>
@@ -110,12 +104,6 @@
     <t>NEP</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>In order to decide how the principal target assemblage of species should be calculated on the basis 1) of  the weight or 2)  of  the value.</t>
-  </si>
-  <si>
     <t>Total tonnage of landing in weight (in Kg)</t>
   </si>
   <si>
@@ -206,19 +194,28 @@
     <t>EUR (O)</t>
   </si>
   <si>
-    <t>e.g. possible options for Kattegat: 1_120, 1_140, 1_180, 1_270 or 1_300.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metier_level_6 </t>
-  </si>
-  <si>
-    <t>Should not be filled in (put it as NA or empty field). The resulting métier calculated by the algorithm will be inserted into this column.</t>
-  </si>
-  <si>
-    <t>As soon as, for the fishing sequence considered,  there is one entry with the modality value provided, then all the calculation algorithm will be based on value for it.</t>
-  </si>
-  <si>
-    <t>Accepted values: weight or value</t>
+    <t>Haul identifier</t>
+  </si>
+  <si>
+    <t>e.g. possible options for Kattegat: "1_120", "1_140", "1_180", "1_270" or "1_300".</t>
+  </si>
+  <si>
+    <t>Metier_level_6 ("")</t>
+  </si>
+  <si>
+    <t>Accepted values: "weight" or "value"</t>
+  </si>
+  <si>
+    <t>Should not be filled in (put it as "NA" or "empty field"). The resulting metier calculated by the algorithm will be inserted into this column.</t>
+  </si>
+  <si>
+    <t>In order to decide how the principal target assemblage of species should be calculated on the basis of the weight or of the value.</t>
+  </si>
+  <si>
+    <t>As soon as, for the fishing sequence considered, there is one entry with the modality "value" provided, then all the calculation algorithm will be based on "value" for it.</t>
+  </si>
+  <si>
+    <t>If the target assemblage of species code is registered in the logbooks or completed based on the expert knowledge it can be entered here and the metier level6 will be calculated taking it into account.</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -391,6 +388,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D1027-353D-439E-B940-959A9AE59729}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +722,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -730,10 +733,10 @@
     </row>
     <row r="2" spans="1:3" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -744,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>2019</v>
@@ -752,7 +755,7 @@
     </row>
     <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -763,10 +766,10 @@
     </row>
     <row r="5" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4">
         <v>12.01</v>
@@ -774,7 +777,7 @@
     </row>
     <row r="6" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -785,21 +788,21 @@
     </row>
     <row r="7" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5">
         <v>43261</v>
@@ -807,54 +810,54 @@
     </row>
     <row r="9" spans="1:3" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
         <v>100</v>
@@ -862,135 +865,133 @@
     </row>
     <row r="14" spans="1:3" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C25" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1000,6 +1001,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D499DF47AE6574EBDD934635F4845BB" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3bef28185f9cfca9db49a64a5612b5d3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="182b565c-ec1a-4025-a4c2-84d1567243de" xmlns:ns4="19ef25e5-bb93-4b51-8923-5ff3c4a7b4c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbfa853a29132bbc7e41bd423067d0ff" ns3:_="" ns4:_="">
     <xsd:import namespace="182b565c-ec1a-4025-a4c2-84d1567243de"/>
@@ -1216,15 +1226,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1232,6 +1233,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A79BE-7579-4109-9F8C-E874D2356350}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18553217-984C-40E6-974D-1A0C5B94117D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1250,27 +1259,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A79BE-7579-4109-9F8C-E874D2356350}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33F9A84A-179B-430A-B59A-3BCB7572F3B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="19ef25e5-bb93-4b51-8923-5ff3c4a7b4c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="182b565c-ec1a-4025-a4c2-84d1567243de"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Metiers/Scripts/Manual/InputDataTable.xlsx
+++ b/Metiers/Scripts/Manual/InputDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molla004\OneDrive - Wageningen University &amp; Research\Git\hub\RCGs\Metiers\Scripts\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{DAFA5E2C-34C1-4C17-BD01-05C2A1650EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79C27D95-42E9-4FC9-8B5D-BB8D5BDDCC1D}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{DAFA5E2C-34C1-4C17-BD01-05C2A1650EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{145CA62F-D318-4FA7-B238-20A5C9C55854}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE080D64-DCD8-4AFB-AA14-CF7186C7FE0D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -161,9 +161,6 @@
     <t>selection (O)</t>
   </si>
   <si>
-    <t>Selection panel code which combines the selection panel code number (see allowed reference code hereunder) and the selection panel mesh size in the second part of the codification.</t>
-  </si>
-  <si>
     <t>0: No selection device</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>If the target assemblage of species code is registered in the logbooks or completed based on the expert knowledge it can be entered here and the metier level6 will be calculated taking it into account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection panel code which combines the selection panel code number (see allowed reference code hereunder) and the selection panel mesh size in the second part of the codification. </t>
   </si>
 </sst>
 </file>
@@ -260,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -321,17 +321,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
@@ -357,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -377,22 +366,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D1027-353D-439E-B940-959A9AE59729}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +774,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -863,72 +846,100 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:3" ht="236.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8" t="s">
+    <row r="17" spans="1:3" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="213.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
+      <c r="A21" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -936,7 +947,7 @@
     </row>
     <row r="23" spans="1:3" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>21</v>
@@ -946,35 +957,39 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -985,7 +1000,7 @@
     </row>
     <row r="28" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>

--- a/Metiers/Scripts/Manual/InputDataTable.xlsx
+++ b/Metiers/Scripts/Manual/InputDataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molla004\OneDrive - Wageningen University &amp; Research\Git\hub\RCGs\Metiers\Scripts\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{DAFA5E2C-34C1-4C17-BD01-05C2A1650EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{145CA62F-D318-4FA7-B238-20A5C9C55854}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{DAFA5E2C-34C1-4C17-BD01-05C2A1650EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0545EB01-3A69-4249-8A87-4195362D72DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE080D64-DCD8-4AFB-AA14-CF7186C7FE0D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>Description</t>
   </si>
@@ -206,16 +206,13 @@
     <t>Should not be filled in (put it as "NA" or "empty field"). The resulting metier calculated by the algorithm will be inserted into this column.</t>
   </si>
   <si>
-    <t>In order to decide how the principal target assemblage of species should be calculated on the basis of the weight or of the value.</t>
-  </si>
-  <si>
-    <t>As soon as, for the fishing sequence considered, there is one entry with the modality "value" provided, then all the calculation algorithm will be based on "value" for it.</t>
-  </si>
-  <si>
     <t>If the target assemblage of species code is registered in the logbooks or completed based on the expert knowledge it can be entered here and the metier level6 will be calculated taking it into account.</t>
   </si>
   <si>
     <t xml:space="preserve">Selection panel code which combines the selection panel code number (see allowed reference code hereunder) and the selection panel mesh size in the second part of the codification. </t>
+  </si>
+  <si>
+    <t>In order to decide how the principal target assemblage of species should be calculated on the basis of the weight or of the value. As soon as, for the fishing sequence considered, there is one entry with the modality "value" provided, then all the calculation algorithm will be based on "value" for it.</t>
   </si>
 </sst>
 </file>
@@ -692,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D1027-353D-439E-B940-959A9AE59729}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +848,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
@@ -939,7 +936,7 @@
         <v>47</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>20</v>
@@ -965,47 +962,36 @@
       </c>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>49</v>
+    <row r="26" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1016,12 +1002,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,15 +1225,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A79BE-7579-4109-9F8C-E874D2356350}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33F9A84A-179B-430A-B59A-3BCB7572F3B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="19ef25e5-bb93-4b51-8923-5ff3c4a7b4c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="182b565c-ec1a-4025-a4c2-84d1567243de"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1275,18 +1270,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33F9A84A-179B-430A-B59A-3BCB7572F3B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B0A79BE-7579-4109-9F8C-E874D2356350}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="19ef25e5-bb93-4b51-8923-5ff3c4a7b4c3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="182b565c-ec1a-4025-a4c2-84d1567243de"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>